--- a/Рабочая_документация.xlsx
+++ b/Рабочая_документация.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1Projects\Hobby\Radio\SW_antenna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1Projects\Hobby\Radio\SW_Antenna\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96735133-7E61-4804-A578-D3E091A1A8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23640" windowHeight="10335"/>
+    <workbookView xWindow="1215" yWindow="840" windowWidth="24270" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
-  <si>
-    <t>Параметры катушек</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Провод</t>
   </si>
@@ -124,12 +121,36 @@
   </si>
   <si>
     <t>Параметры контуров антенн</t>
+  </si>
+  <si>
+    <t>90 мм</t>
+  </si>
+  <si>
+    <t>100 x 20 x 3 мм М400НН (10 шт.)</t>
+  </si>
+  <si>
+    <t>150 мкГн</t>
+  </si>
+  <si>
+    <t>Параметры контуров</t>
+  </si>
+  <si>
+    <t>6 пФ - 248 пФ</t>
+  </si>
+  <si>
+    <t>КПВ-2 (послед.подкл.)</t>
+  </si>
+  <si>
+    <t>CBM-443BF</t>
+  </si>
+  <si>
+    <t>5 пФ - 270 пФ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -169,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -178,9 +199,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -477,81 +495,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -560,128 +578,161 @@
         <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="B19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="D19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C21" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" s="9">
+        <v>12</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="8">
+      <c r="C22" s="9">
         <v>2</v>
       </c>
-      <c r="D19" s="8">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D22" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="10">
-        <v>2</v>
-      </c>
-      <c r="D20" s="10">
-        <v>12</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="10">
-        <v>2</v>
-      </c>
-      <c r="D21" s="10">
-        <v>10</v>
-      </c>
-      <c r="E21" s="11"/>
+      <c r="E22" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Рабочая_документация.xlsx
+++ b/Рабочая_документация.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1Projects\Hobby\Radio\SW_Antenna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96735133-7E61-4804-A578-D3E091A1A8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B9D669-70A7-4BC7-A271-4D19A36D0937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="840" windowWidth="24270" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="840" windowWidth="26040" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>Провод</t>
   </si>
@@ -144,7 +144,16 @@
     <t>CBM-443BF</t>
   </si>
   <si>
-    <t>5 пФ - 270 пФ</t>
+    <t>Угол поворота</t>
+  </si>
+  <si>
+    <t>180 град.</t>
+  </si>
+  <si>
+    <t>100 град.</t>
+  </si>
+  <si>
+    <t>30 пФ - 290 пФ</t>
   </si>
 </sst>
 </file>
@@ -499,12 +508,12 @@
   <dimension ref="A2:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="29.140625" customWidth="1"/>
@@ -630,6 +639,9 @@
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -638,6 +650,9 @@
       <c r="B13" t="s">
         <v>20</v>
       </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -646,6 +661,9 @@
       <c r="B14" t="s">
         <v>21</v>
       </c>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -654,13 +672,19 @@
       <c r="B15" t="s">
         <v>36</v>
       </c>
+      <c r="C15" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">

--- a/Рабочая_документация.xlsx
+++ b/Рабочая_документация.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1Projects\Hobby\Radio\SW_Antenna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B9D669-70A7-4BC7-A271-4D19A36D0937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0433F680-7A6B-416C-B794-E77086D4A994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="840" windowWidth="26040" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="1260" windowWidth="24720" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>Провод</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Емкость</t>
   </si>
   <si>
-    <t>20 пФ - 180 пФ</t>
-  </si>
-  <si>
     <t>12 пФ - 495 пФ x 2</t>
   </si>
   <si>
@@ -123,15 +120,9 @@
     <t>Параметры контуров антенн</t>
   </si>
   <si>
-    <t>90 мм</t>
-  </si>
-  <si>
     <t>100 x 20 x 3 мм М400НН (10 шт.)</t>
   </si>
   <si>
-    <t>150 мкГн</t>
-  </si>
-  <si>
     <t>Параметры контуров</t>
   </si>
   <si>
@@ -154,6 +145,18 @@
   </si>
   <si>
     <t>30 пФ - 290 пФ</t>
+  </si>
+  <si>
+    <t>20 пФ - 180 (195) пФ</t>
+  </si>
+  <si>
+    <t>90 мм (барабан)</t>
+  </si>
+  <si>
+    <t>25 мкГн (?)</t>
+  </si>
+  <si>
+    <t>150 мкГн (?)</t>
   </si>
 </sst>
 </file>
@@ -505,16 +508,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E22"/>
+  <dimension ref="A2:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="29.140625" customWidth="1"/>
     <col min="5" max="5" width="26.140625" customWidth="1"/>
@@ -522,7 +525,7 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -618,145 +621,162 @@
         <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>40</v>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="E20" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="7">
+      <c r="B21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="7">
         <v>2</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D21" s="7">
         <v>8</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="9">
-        <v>2</v>
-      </c>
-      <c r="D21" s="9">
-        <v>12</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C22" s="9">
         <v>2</v>
       </c>
       <c r="D22" s="9">
+        <v>12</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="9">
+        <v>2</v>
+      </c>
+      <c r="D23" s="9">
         <v>10</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="E23" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Рабочая_документация.xlsx
+++ b/Рабочая_документация.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1Projects\Hobby\Radio\SW_Antenna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0433F680-7A6B-416C-B794-E77086D4A994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77EF56F-F3BF-4155-9FCF-0A4E27421491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2370" yWindow="1260" windowWidth="24720" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>Провод</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>150 мкГн (?)</t>
+  </si>
+  <si>
+    <t>МГТФ-0,1, 9 витков, 90 мм (барабан), 100 x 20 x 3 мм М400НН (10 шт.)</t>
   </si>
 </sst>
 </file>
@@ -511,7 +514,7 @@
   <dimension ref="A2:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,7 +523,7 @@
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -635,7 +638,7 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>41</v>
@@ -763,7 +766,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>29</v>
       </c>
@@ -774,9 +777,11 @@
         <v>2</v>
       </c>
       <c r="D23" s="9">
-        <v>10</v>
-      </c>
-      <c r="E23" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
